--- a/Template/Шаблон для загрузки контактных лиц в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки контактных лиц в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Контактные лица" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Сайт</t>
   </si>
@@ -57,16 +57,19 @@
     <t>Должность</t>
   </si>
   <si>
-    <t>Телефон</t>
-  </si>
-  <si>
     <t>Факс</t>
+  </si>
+  <si>
+    <t>Телефоны</t>
+  </si>
+  <si>
+    <t>Эл. почта</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,27 +473,27 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -507,13 +510,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
@@ -531,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -546,7 +549,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -561,7 +564,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -576,7 +579,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -591,7 +594,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -606,7 +609,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
